--- a/maven-demo/xmind/知识点.xlsx
+++ b/maven-demo/xmind/知识点.xlsx
@@ -16,9 +16,24 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
   <si>
     <t>浮点数相加需要先对阶，小阶向大阶对齐，同时尾数向右移n位</t>
+  </si>
+  <si>
+    <t>BIOS是一个程序，固化在主板的BIOS ROM芯片中，控制和保存硬件的输入输出</t>
+  </si>
+  <si>
+    <t>可靠性公式——串联：R = R1 * R2 * R3</t>
+  </si>
+  <si>
+    <t>可靠性公式——串联：R = 1 - (1 - R1)*(1 - R2)*(1 - R3)</t>
+  </si>
+  <si>
+    <t>无限期拥有的知识产权：署名权、修改权、作品完整权</t>
+  </si>
+  <si>
+    <t>保护计算机软件著作权的基本法律：中华人民共和国著作法、计算机软件保护条例</t>
   </si>
 </sst>
 </file>
@@ -26,12 +41,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="23">
+  <fonts count="22">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -66,6 +81,105 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="13"/>
       <color theme="3"/>
@@ -81,29 +195,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -116,92 +210,6 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -212,31 +220,169 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -248,151 +394,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -403,15 +411,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -430,17 +429,31 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
+      <left/>
+      <right/>
       <top style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color theme="4"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -464,7 +477,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -484,22 +497,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
       <top style="thin">
-        <color theme="4"/>
+        <color rgb="FFB2B2B2"/>
       </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -508,148 +516,148 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="32" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="20" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="20" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="31" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="14" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="14" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="26" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1011,21 +1019,46 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1"/>
+  <dimension ref="A1:A6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="5"/>
   <cols>
-    <col min="1" max="1" width="61.5" style="1" customWidth="1"/>
+    <col min="1" max="1" width="76" style="1" customWidth="1"/>
     <col min="2" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="14.25" spans="1:1">
       <c r="A1" s="2" t="s">
         <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1">
+      <c r="A2" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1">
+      <c r="A3" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1">
+      <c r="A4" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1">
+      <c r="A5" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1">
+      <c r="A6" s="1" t="s">
+        <v>5</v>
       </c>
     </row>
   </sheetData>

--- a/maven-demo/xmind/知识点.xlsx
+++ b/maven-demo/xmind/知识点.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowHeight="18465"/>
+    <workbookView windowWidth="9585" windowHeight="18180"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
   <si>
     <t>浮点数相加需要先对阶，小阶向大阶对齐，同时尾数向右移n位</t>
   </si>
@@ -35,16 +35,19 @@
   <si>
     <t>保护计算机软件著作权的基本法律：中华人民共和国著作法、计算机软件保护条例</t>
   </si>
+  <si>
+    <t>UML图类型，及其构件含义</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="22">
     <font>
@@ -81,6 +84,74 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
@@ -105,45 +176,24 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -157,57 +207,10 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -220,13 +223,169 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -244,163 +403,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -443,15 +446,6 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
       </bottom>
@@ -473,15 +467,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -493,6 +478,15 @@
       </top>
       <bottom style="double">
         <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -511,6 +505,15 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -519,145 +522,145 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="20" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="25" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="23" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="13" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="32" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="20" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="20" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="31" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1019,13 +1022,13 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:A6"/>
+  <dimension ref="A1:A7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+      <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="6"/>
   <cols>
     <col min="1" max="1" width="76" style="1" customWidth="1"/>
     <col min="2" max="16384" width="9" style="1"/>
@@ -1059,6 +1062,11 @@
     <row r="6" spans="1:1">
       <c r="A6" s="1" t="s">
         <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1">
+      <c r="A7" s="1" t="s">
+        <v>6</v>
       </c>
     </row>
   </sheetData>

--- a/maven-demo/xmind/知识点.xlsx
+++ b/maven-demo/xmind/知识点.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
   <si>
     <t>浮点数相加需要先对阶，小阶向大阶对齐，同时尾数向右移n位</t>
   </si>
@@ -38,16 +38,22 @@
   <si>
     <t>UML图类型，及其构件含义</t>
   </si>
+  <si>
+    <t>震网病毒是一种蠕虫病毒</t>
+  </si>
+  <si>
+    <t>关系自然连接，去除右边关系S中重复的属性列</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="22">
     <font>
@@ -86,41 +92,102 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FF3F3F3F"/>
@@ -129,42 +196,11 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -183,36 +219,6 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -223,19 +229,139 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -247,7 +373,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -259,151 +409,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -414,56 +420,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -486,7 +442,66 @@
       <right/>
       <top/>
       <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
         <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -505,15 +520,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -522,145 +528,145 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="17" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="27" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="16" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="16" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="20" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="25" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="23" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1022,13 +1028,13 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:A7"/>
+  <dimension ref="A1:A9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
+      <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="6"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="76" style="1" customWidth="1"/>
     <col min="2" max="16384" width="9" style="1"/>
@@ -1067,6 +1073,16 @@
     <row r="7" spans="1:1">
       <c r="A7" s="1" t="s">
         <v>6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1">
+      <c r="A8" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1">
+      <c r="A9" s="1" t="s">
+        <v>8</v>
       </c>
     </row>
   </sheetData>

--- a/maven-demo/xmind/知识点.xlsx
+++ b/maven-demo/xmind/知识点.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
   <si>
     <t>浮点数相加需要先对阶，小阶向大阶对齐，同时尾数向右移n位</t>
   </si>
@@ -44,6 +44,9 @@
   <si>
     <t>关系自然连接，去除右边关系S中重复的属性列</t>
   </si>
+  <si>
+    <t>对于大多数通用程序设计语言，用“上下文无关文法”描述其语法即可</t>
+  </si>
 </sst>
 </file>
 
@@ -77,6 +80,35 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -84,7 +116,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -92,7 +131,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -122,80 +161,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
@@ -219,6 +184,44 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -229,187 +232,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -420,39 +423,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -480,17 +450,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -502,6 +461,15 @@
       </top>
       <bottom style="thin">
         <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -520,6 +488,41 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -528,10 +531,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="17" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -540,133 +543,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="27" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="16" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="16" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="11" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="17" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1028,10 +1031,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:A9"/>
+  <dimension ref="A1:A10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A9" sqref="A9"/>
+      <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1085,6 +1088,11 @@
         <v>8</v>
       </c>
     </row>
+    <row r="10" spans="1:1">
+      <c r="A10" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>

--- a/maven-demo/xmind/知识点.xlsx
+++ b/maven-demo/xmind/知识点.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
   <si>
     <t>浮点数相加需要先对阶，小阶向大阶对齐，同时尾数向右移n位</t>
   </si>
@@ -47,6 +47,9 @@
   <si>
     <t>对于大多数通用程序设计语言，用“上下文无关文法”描述其语法即可</t>
   </si>
+  <si>
+    <t>访问控制三个任务：授权、确认访问权限、实施访问权限</t>
+  </si>
 </sst>
 </file>
 
@@ -80,7 +83,91 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -102,28 +189,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -131,86 +197,23 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
       <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -232,187 +235,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -423,6 +426,56 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -445,22 +498,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -468,23 +506,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -503,26 +526,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -531,10 +534,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="17" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -543,16 +546,16 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -561,115 +564,115 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="11" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="17" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="19" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1031,10 +1034,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:A10"/>
+  <dimension ref="A1:A11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A10" sqref="A10"/>
+      <selection activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1093,6 +1096,11 @@
         <v>9</v>
       </c>
     </row>
+    <row r="11" spans="1:1">
+      <c r="A11" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>

--- a/maven-demo/xmind/知识点.xlsx
+++ b/maven-demo/xmind/知识点.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
   <si>
     <t>浮点数相加需要先对阶，小阶向大阶对齐，同时尾数向右移n位</t>
   </si>
@@ -36,9 +36,6 @@
     <t>保护计算机软件著作权的基本法律：中华人民共和国著作法、计算机软件保护条例</t>
   </si>
   <si>
-    <t>UML图类型，及其构件含义</t>
-  </si>
-  <si>
     <t>震网病毒是一种蠕虫病毒</t>
   </si>
   <si>
@@ -49,6 +46,12 @@
   </si>
   <si>
     <t>访问控制三个任务：授权、确认访问权限、实施访问权限</t>
+  </si>
+  <si>
+    <t>流水线的操作周期：指令执行周期最长的一段决定</t>
+  </si>
+  <si>
+    <t>http默认端口80，https默认端口443，邮箱POP3默认端口110</t>
   </si>
 </sst>
 </file>
@@ -83,36 +86,14 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -126,9 +107,46 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -136,7 +154,15 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -144,9 +170,9 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -158,9 +184,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -188,39 +214,16 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -235,187 +238,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -426,21 +429,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -468,17 +456,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -490,24 +467,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -526,6 +485,50 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -534,10 +537,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="17" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="14" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -546,133 +549,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="22" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="22" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="17" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="19" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1034,10 +1037,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:A11"/>
+  <dimension ref="A1:A12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A11" sqref="A11"/>
+      <selection activeCell="A7" sqref="A7:A12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1101,6 +1104,11 @@
         <v>10</v>
       </c>
     </row>
+    <row r="12" spans="1:1">
+      <c r="A12" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>

--- a/maven-demo/xmind/知识点.xlsx
+++ b/maven-demo/xmind/知识点.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
   <si>
     <t>浮点数相加需要先对阶，小阶向大阶对齐，同时尾数向右移n位</t>
   </si>
@@ -52,6 +52,13 @@
   </si>
   <si>
     <t>http默认端口80，https默认端口443，邮箱POP3默认端口110</t>
+  </si>
+  <si>
+    <t>内聚：
+  逻辑内聚：功能相似
+  过程内聚：顺序执行
+  通信内聚：元素在同一数据结构
+  功能内聚：所有元素完成同一功能</t>
   </si>
 </sst>
 </file>
@@ -59,10 +66,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="22">
     <font>
@@ -86,6 +93,13 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -93,7 +107,59 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -108,71 +174,17 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -184,6 +196,30 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color theme="1"/>
@@ -192,38 +228,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -238,67 +245,157 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -310,115 +407,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -429,6 +436,21 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -441,17 +463,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -487,16 +503,16 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </left>
       <right style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </right>
       <top style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -520,15 +536,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -537,10 +544,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="14" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="12" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -549,137 +556,137 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="6" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="16" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="22" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="22" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="17" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -688,6 +695,9 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -1037,10 +1047,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:A12"/>
+  <dimension ref="A1:A13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7:A12"/>
+      <selection activeCell="A13" sqref="A13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1107,6 +1117,11 @@
     <row r="12" spans="1:1">
       <c r="A12" s="1" t="s">
         <v>11</v>
+      </c>
+    </row>
+    <row r="13" ht="67.5" spans="1:1">
+      <c r="A13" s="3" t="s">
+        <v>12</v>
       </c>
     </row>
   </sheetData>

--- a/maven-demo/xmind/知识点.xlsx
+++ b/maven-demo/xmind/知识点.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
   <si>
     <t>浮点数相加需要先对阶，小阶向大阶对齐，同时尾数向右移n位</t>
   </si>
@@ -59,6 +59,9 @@
   过程内聚：顺序执行
   通信内聚：元素在同一数据结构
   功能内聚：所有元素完成同一功能</t>
+  </si>
+  <si>
+    <t>嵌入式系统设计时，高速缓存对程序员来说是透明的</t>
   </si>
 </sst>
 </file>
@@ -66,8 +69,8 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
@@ -99,23 +102,16 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -137,29 +133,61 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -173,6 +201,30 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
       <name val="宋体"/>
@@ -180,55 +232,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
@@ -251,181 +254,181 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -436,6 +439,80 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -457,82 +534,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -544,10 +547,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="12" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="10" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -556,19 +559,19 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -577,112 +580,112 @@
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="6" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="16" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="12" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="12" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1047,7 +1050,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:A13"/>
+  <dimension ref="A1:A14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A13" sqref="A13"/>
@@ -1122,6 +1125,11 @@
     <row r="13" ht="67.5" spans="1:1">
       <c r="A13" s="3" t="s">
         <v>12</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1">
+      <c r="A14" s="1" t="s">
+        <v>13</v>
       </c>
     </row>
   </sheetData>
